--- a/gen_abschreibung.xlsx
+++ b/gen_abschreibung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F-NET-ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AFCD917B-7834-40D4-9D0F-3BDA37C10F6F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FEFBAAE8-D2ED-461B-9363-CC4D879CEA75}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{829301CA-AB9A-495E-9254-4ACD5700EEFB}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>Anschaffungskosten</t>
   </si>
   <si>
-    <t>Nutzungsdauer</t>
-  </si>
-  <si>
     <t>Abschreibungsbetrag 2016</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ändern Sie lediglich die Daten in Zeile 3. Die entsprechende Abschreibungstabelle wird Ihnen automatisch erstellt. </t>
+  </si>
+  <si>
+    <t>Nutzungsdauer in Jahren</t>
   </si>
 </sst>
 </file>
@@ -96,10 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -419,7 +418,7 @@
   <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,11 +442,11 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>43198</v>
       </c>
       <c r="D3">
@@ -457,34 +456,34 @@
         <v>5</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f>YEAR($C$3)+A6</f>
         <v>2018</v>
       </c>
@@ -492,7 +491,7 @@
         <f>D3</f>
         <v>1276.96</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f>DATE(YEAR(C3),12,31)-C3</f>
         <v>267</v>
       </c>
@@ -509,7 +508,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <f t="shared" ref="B7:B23" si="0">YEAR($C$3)+A7</f>
         <v>2019</v>
       </c>
@@ -534,7 +533,7 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
@@ -559,7 +558,7 @@
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
@@ -584,7 +583,7 @@
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
@@ -609,7 +608,7 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
@@ -634,7 +633,7 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
@@ -659,7 +658,7 @@
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
@@ -684,7 +683,7 @@
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
@@ -709,7 +708,7 @@
       <c r="A15">
         <v>9</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
@@ -734,7 +733,7 @@
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
@@ -759,7 +758,7 @@
       <c r="A17">
         <v>11</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
@@ -784,7 +783,7 @@
       <c r="A18">
         <v>12</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
@@ -809,7 +808,7 @@
       <c r="A19">
         <v>13</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
@@ -834,7 +833,7 @@
       <c r="A20">
         <v>14</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
@@ -859,7 +858,7 @@
       <c r="A21">
         <v>15</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
@@ -884,7 +883,7 @@
       <c r="A22">
         <v>16</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
@@ -909,7 +908,7 @@
       <c r="A23">
         <v>17</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
@@ -932,17 +931,17 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/gen_abschreibung.xlsx
+++ b/gen_abschreibung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FEFBAAE8-D2ED-461B-9363-CC4D879CEA75}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CFCCA4C6-6CAD-4D38-9E35-3F536C9F069B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{829301CA-AB9A-495E-9254-4ACD5700EEFB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Kaufdatum</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Nutzungsdauer in Jahren</t>
+  </si>
+  <si>
+    <t>Sollte Ihnen die Tabelle zu kurz sein, können Sie sie einfach wie gewohnt verlängern.</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507CF7F3-6433-473D-853A-82C83BA35AF2}">
-  <dimension ref="A2:H29"/>
+  <dimension ref="A2:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,6 +947,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/gen_abschreibung.xlsx
+++ b/gen_abschreibung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abschreibung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excel_abschreibungs_tab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CFCCA4C6-6CAD-4D38-9E35-3F536C9F069B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2DC39C64-2BB0-44B8-BA63-43F05B67EF0D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{829301CA-AB9A-495E-9254-4ACD5700EEFB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Kaufdatum</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Anschaffungskosten</t>
   </si>
   <si>
-    <t>Abschreibungsbetrag 2016</t>
-  </si>
-  <si>
     <t>Restbuchwert per 01.01.</t>
   </si>
   <si>
@@ -64,14 +61,36 @@
   </si>
   <si>
     <t>Sollte Ihnen die Tabelle zu kurz sein, können Sie sie einfach wie gewohnt verlängern.</t>
+  </si>
+  <si>
+    <t>Abschreibungsbetrag</t>
+  </si>
+  <si>
+    <t>Abschreibungstabelle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,11 +118,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -421,7 +442,7 @@
   <dimension ref="A2:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,22 +459,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
-        <v>43198</v>
+        <v>43218</v>
       </c>
       <c r="D3">
-        <v>1276.96</v>
+        <v>2106.37</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -463,23 +487,23 @@
       <c r="H3" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -492,19 +516,19 @@
       </c>
       <c r="C6">
         <f>D3</f>
-        <v>1276.96</v>
+        <v>2106.37</v>
       </c>
       <c r="D6" s="3">
         <f>DATE(YEAR(C3),12,31)-C3</f>
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="E6">
         <f>MIN(C6,ROUND($D$3/$E$3*D6/365,2))</f>
-        <v>186.82</v>
+        <v>285.08</v>
       </c>
       <c r="F6">
         <f>C6-E6</f>
-        <v>1090.1400000000001</v>
+        <v>1821.29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -517,7 +541,7 @@
       </c>
       <c r="C7">
         <f>F6</f>
-        <v>1090.1400000000001</v>
+        <v>1821.29</v>
       </c>
       <c r="D7">
         <f>IF(C7=0,0,365)</f>
@@ -525,12 +549,13 @@
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E23" si="1">MIN(C7,ROUND($D$3/$E$3*D7/365,2))</f>
-        <v>255.39</v>
+        <v>421.27</v>
       </c>
       <c r="F7">
         <f>C7-E7</f>
-        <v>834.75000000000011</v>
-      </c>
+        <v>1400.02</v>
+      </c>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -542,7 +567,7 @@
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C23" si="2">F7</f>
-        <v>834.75000000000011</v>
+        <v>1400.02</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D23" si="3">IF(C8=0,0,365)</f>
@@ -550,11 +575,11 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>255.39</v>
+        <v>421.27</v>
       </c>
       <c r="F8">
         <f t="shared" ref="F8:F22" si="4">C8-E8</f>
-        <v>579.36000000000013</v>
+        <v>978.75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -567,7 +592,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>579.36000000000013</v>
+        <v>978.75</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
@@ -575,11 +600,11 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>255.39</v>
+        <v>421.27</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>323.97000000000014</v>
+        <v>557.48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -592,7 +617,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>323.97000000000014</v>
+        <v>557.48</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
@@ -600,11 +625,11 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>255.39</v>
+        <v>421.27</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>68.580000000000155</v>
+        <v>136.21000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -617,7 +642,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>68.580000000000155</v>
+        <v>136.21000000000004</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
@@ -625,7 +650,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>68.580000000000155</v>
+        <v>136.21000000000004</v>
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
@@ -933,23 +958,23 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>12</v>
+      <c r="A30" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
